--- a/biology/Botanique/Bertiera_laxa/Bertiera_laxa.xlsx
+++ b/biology/Botanique/Bertiera_laxa/Bertiera_laxa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bertiera laxa est une espèce de plantes du genre Bertiera et de la famille des Rubiaceae, présente sur la ligne montagneuse du Cameroun.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bertiera laxa est un grand arbre, de 30-35 m de haut et au tronc de 60-80 cm de diamètre à environ 1 m. 
 Ses feuilles peuvent atteindre jusqu'à 45 cm de long. Son inflorescence est terminale (l'axe primaire et toutes ses ramifiactions sont terminés par une fleur) et ces fleurs sont bisexuées.
-Il produit de grands fruits, verts et sphériques, d'environ 7,5 cm de diamètre, avec jusqu'à 170 graines qui sont disséminées par les animaux[3].
+Il produit de grands fruits, verts et sphériques, d'environ 7,5 cm de diamètre, avec jusqu'à 170 graines qui sont disséminées par les animaux.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente au Cameroun, en Guinée équatoriale (Bioko) et au Nigeria[4]. La variété Bertiera laxa var. bamendae est endémique du Cameroun, où elle a été observée sur plusieurs sites dans quatre régions (Nord-Ouest, Sud-Ouest, Littoral, Sud[5]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente au Cameroun, en Guinée équatoriale (Bioko) et au Nigeria. La variété Bertiera laxa var. bamendae est endémique du Cameroun, où elle a été observée sur plusieurs sites dans quatre régions (Nord-Ouest, Sud-Ouest, Littoral, Sud).
 </t>
         </is>
       </c>
@@ -575,12 +591,14 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (17 août 2018)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (17 août 2018) :
 variété Bertiera laxa var. bamendae
 variété Bertiera laxa var. laxa
-Selon Tropicos                                           (17 août 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (17 août 2018) (Attention liste brute contenant possiblement des synonymes) :
 variété Bertiera laxa var. bamendae Hepper
 variété Bertiera laxa var. hamendae Hepper
 variété Bertiera laxa var. laxa
